--- a/biology/Médecine/Robert_Courrier/Robert_Courrier.xlsx
+++ b/biology/Médecine/Robert_Courrier/Robert_Courrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Courrier, né le 6 octobre 1895 à Saxon-Sion (Meurthe-et-Moselle) et mort le 14 mars 1986 à Paris[1], est un biologiste français et secrétaire perpétuel de l'Académie des sciences pendant près de quarante ans (de 1948 à 1986). Il obtient la médaille d'or du CNRS en 1963[2]. Il soutient les expérimentations entreprises sur les appareils d'Antoine Priore, présumés capables de traiter le cancer, et s'oppose sur ce sujet aux professeurs de Broglie et Lacassagne.
-Il est fellow de la Royal Society[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Courrier, né le 6 octobre 1895 à Saxon-Sion (Meurthe-et-Moselle) et mort le 14 mars 1986 à Paris, est un biologiste français et secrétaire perpétuel de l'Académie des sciences pendant près de quarante ans (de 1948 à 1986). Il obtient la médaille d'or du CNRS en 1963. Il soutient les expérimentations entreprises sur les appareils d'Antoine Priore, présumés capables de traiter le cancer, et s'oppose sur ce sujet aux professeurs de Broglie et Lacassagne.
+Il est fellow de la Royal Society.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1895-1913 : naissance dans une famille d'instituteurs ; études secondaires à Pont-à-Mousson ;
 1913-1916 : il entre à la Faculté des sciences de Nancy en 1913 pour y préparer le PCN ; en novembre 1914, il s'inscrit à la Faculté de médecine de Nancy ; mobilisé en décembre, blessé à la bataille de Verdun, il reçoit la croix de guerre en 1916 ;
@@ -556,8 +570,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Conférences prononcées à la séance annuelle de l'Académie des sciences
-1970 : « Georges Cuvier, 1769-1832 : Certains aspects de sa carrière », 14 décembre.
+          <t>Conférences prononcées à la séance annuelle de l'Académie des sciences</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1970 : « Georges Cuvier, 1769-1832 : Certains aspects de sa carrière », 14 décembre.
 1971 : « L'entreprise et ses problèmes ».
 1972 : « Notice sur la vie et les travaux de Georges Urbain, 1872-1938 », 11 décembre.
 1974 : « Notice sur la vie et les travaux de Camille Arambourg, 1885-1969 : Ses recherches sur la genèse de l'humanité », 9 décembre.
@@ -592,7 +611,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Académie nationale de médecine, président (1941)
 Académie des sciences (1944), secrétaire perpétuel (1948-1986)
